--- a/Studio_Religion/AI+Ethics .xlsx
+++ b/Studio_Religion/AI+Ethics .xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushisingh/Documents/D3 Technologies/Arushi5545.github.io/Studio_Religion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DF7A88-93BA-6644-9DC5-A57F2EB210EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B1E76-5BF1-914E-9294-67647BEBA3F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="460" windowWidth="23460" windowHeight="15180" activeTab="2" xr2:uid="{733B9FA0-FB74-8E4D-8E9C-12231B2F4F2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{733B9FA0-FB74-8E4D-8E9C-12231B2F4F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$N$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -374,8 +376,49 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{30D63579-E6C9-2347-9C95-D28E2D37004C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>would we want to include Responsible bots: 10 guidelines for developers of conversational AI: https://www.microsoft.com/en-us/research/publication/responsible-bots/
+	-Hannah Hilligoss
+yes
+	-Hannah Hilligoss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{748621D8-5D32-6A4D-9185-963A08B01636}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>This document mentions that AI systems should "...remain compatible and increase the principles of human dignity, integrity, freedom, privacy and cultural and gender diversity, as well as with fundamental human rights."
+It also mentions workers' "'right of explanation' when AI systems are used in human-resource procedures, such as recruitment, promotion or dismissal."
+Moreover, it says that "AI technologies should benefit and empower as many people as possible. The economic
+prosperity created by AI should be distributed broadly and equally, to benefit all of humanity."
+	-Maia Levy Daniel</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="315">
   <si>
     <t>document title</t>
   </si>
@@ -1441,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1504,6 +1547,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1820,9 +1905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CACBA50-F6F6-A449-96BB-E04BCB078CCA}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="A1:X33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1835,7 +1920,7 @@
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="29.83203125" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
     <col min="24" max="24" width="20.1640625" customWidth="1"/>
   </cols>
@@ -7714,14 +7799,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F9651E-359C-0846-9CCD-44969883570E}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" activeCellId="9" sqref="D1:D1048576 F1:F1048576 G1:G1048576 H1:H1048576 I1:I1048576 J1:J1048576 L1:L1048576 M1:M1048576 N1:N1048576 O1:O1048576"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="49"/>
+    <col min="3" max="3" width="34.6640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="24" style="49" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="49" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="57">
@@ -7737,7 +7827,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -7768,84 +7858,84 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:14" ht="29">
+      <c r="A2" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="29">
+      <c r="A3" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="57">
+      <c r="E3" s="10"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43">
       <c r="A4" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -7854,59 +7944,59 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:14" ht="51">
+      <c r="A5" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="43">
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="197">
       <c r="A6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="71">
       <c r="A7" s="10" t="s">
@@ -7915,24 +8005,24 @@
       <c r="B7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14" t="b">
+      <c r="E7" s="10"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7943,722 +8033,722 @@
       <c r="B8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="11" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="29">
+      <c r="A9" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="22" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="99">
+      <c r="A10" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="11" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="141">
+      <c r="A11" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="11" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29">
+      <c r="A12" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="11" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="43">
+      <c r="A13" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="11" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="57">
+      <c r="A14" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="11" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="113">
+      <c r="A15" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="22" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="119">
+      <c r="A16" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="28" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="79">
+      <c r="A17" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="33" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="85">
+      <c r="A18" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="127">
+      <c r="A19" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="30" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="113">
+      <c r="A20" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="22" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="71">
+      <c r="A21" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="11" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" ht="29">
+      <c r="A22" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="31" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="34">
+      <c r="A23" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="11" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="57">
+      <c r="A24" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F24" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="18" t="s">
+      <c r="F24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="29">
+      <c r="A25" s="48" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="18" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="29">
+      <c r="A26" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="11" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="29">
+      <c r="A27" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="11" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="29">
+      <c r="A28" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="11" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="29">
+      <c r="A29" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="21"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="11" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14" ht="43">
+      <c r="A30" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="11" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" ht="85">
+      <c r="A31" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="30" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="57">
+      <c r="A32" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="31" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="68">
+      <c r="A33" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14" t="b">
+      <c r="E33" s="10"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8666,4 +8756,781 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9422BF10-25F7-D641-BF9B-3445C9900CFD}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="57">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="29">
+      <c r="A2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="29">
+      <c r="A3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="51">
+      <c r="A4" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="71">
+      <c r="A5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="211">
+      <c r="A6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="29">
+      <c r="A7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="99">
+      <c r="A8" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="141">
+      <c r="A9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="29">
+      <c r="A10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="113">
+      <c r="A11" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="119">
+      <c r="A12" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" ht="79">
+      <c r="A13" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="68">
+      <c r="A14" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="99">
+      <c r="A15" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="113">
+      <c r="A16" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="29">
+      <c r="A17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="34">
+      <c r="A18" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" ht="29">
+      <c r="A19" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="29">
+      <c r="A20" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="29">
+      <c r="A21" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="29">
+      <c r="A22" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="29">
+      <c r="A23" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" ht="29">
+      <c r="A24" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" ht="57">
+      <c r="A25" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="43">
+      <c r="A26" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="51">
+      <c r="A27" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:M27">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>